--- a/automation/result.xlsx
+++ b/automation/result.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>SSIM</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size (KB)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -470,6 +475,11 @@
           <t>0.99420</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.6113</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -485,6 +495,11 @@
           <t>0.99353</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.0596</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +515,11 @@
           <t>0.99309</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.8555</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -515,6 +535,11 @@
           <t>0.99323</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.1357</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -530,6 +555,11 @@
           <t>0.99359</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.2285</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -545,6 +575,11 @@
           <t>0.99380</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.7725</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -560,6 +595,11 @@
           <t>0.99387</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.5078</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -575,6 +615,11 @@
           <t>0.99388</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.5566</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -590,6 +635,11 @@
           <t>0.99383</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.7305</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -605,6 +655,11 @@
           <t>0.99380</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.8613</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -620,6 +675,11 @@
           <t>0.99373</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.9902</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -635,6 +695,11 @@
           <t>0.99370</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.9844</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -650,6 +715,11 @@
           <t>0.99370</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.0088</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -665,6 +735,11 @@
           <t>0.99373</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.9502</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -680,6 +755,11 @@
           <t>0.99368</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.0625</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -695,6 +775,11 @@
           <t>0.99373</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.8672</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -710,6 +795,11 @@
           <t>0.99379</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.7734</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -725,6 +815,11 @@
           <t>0.99375</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.9053</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -740,6 +835,11 @@
           <t>0.99378</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.9189</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -755,6 +855,11 @@
           <t>0.99379</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.9775</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -770,6 +875,11 @@
           <t>0.99383</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.9922</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -785,6 +895,11 @@
           <t>0.99376</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.0576</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -800,6 +915,11 @@
           <t>0.99381</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.0840</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -815,6 +935,11 @@
           <t>0.99377</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.1787</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -830,6 +955,11 @@
           <t>0.99374</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.2617</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -845,6 +975,11 @@
           <t>0.99379</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.3408</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -860,6 +995,11 @@
           <t>0.99378</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.5391</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -875,6 +1015,11 @@
           <t>0.99374</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.7012</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -890,6 +1035,11 @@
           <t>0.99377</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.7461</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -905,6 +1055,11 @@
           <t>0.99382</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.7178</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -920,6 +1075,11 @@
           <t>0.99378</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.5479</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -935,6 +1095,11 @@
           <t>0.99378</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.5352</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -950,6 +1115,11 @@
           <t>0.99386</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.6084</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -965,6 +1135,11 @@
           <t>0.99377</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.7217</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -980,6 +1155,11 @@
           <t>0.99378</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.7754</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -995,6 +1175,11 @@
           <t>0.99375</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15.9033</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1010,6 +1195,11 @@
           <t>0.99378</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>15.8770</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1025,6 +1215,11 @@
           <t>0.99374</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15.9893</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1040,6 +1235,11 @@
           <t>0.99376</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>15.9443</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1055,6 +1255,11 @@
           <t>0.99369</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>16.0371</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1070,6 +1275,11 @@
           <t>0.99374</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>16.0029</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1085,6 +1295,11 @@
           <t>0.99370</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>16.0713</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1100,6 +1315,11 @@
           <t>0.99358</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>16.2441</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1115,6 +1335,11 @@
           <t>0.99364</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>16.1846</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1130,6 +1355,11 @@
           <t>0.99357</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>16.2285</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1145,6 +1375,11 @@
           <t>0.99365</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>16.3584</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1160,6 +1395,11 @@
           <t>0.99357</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>16.3682</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1175,6 +1415,11 @@
           <t>0.99368</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16.2617</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1190,6 +1435,11 @@
           <t>0.99368</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>16.2285</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1205,6 +1455,11 @@
           <t>0.99375</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>16.1865</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1220,6 +1475,11 @@
           <t>0.99373</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>16.2275</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1235,6 +1495,11 @@
           <t>0.99370</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>16.3828</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1250,6 +1515,11 @@
           <t>0.99365</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>16.4512</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1265,6 +1535,11 @@
           <t>0.99367</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>16.4570</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1280,6 +1555,11 @@
           <t>0.99368</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>16.4121</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1295,6 +1575,11 @@
           <t>0.99369</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>16.3516</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1310,6 +1595,11 @@
           <t>0.99368</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>16.3096</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1325,6 +1615,11 @@
           <t>0.99373</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>16.2695</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1340,6 +1635,11 @@
           <t>0.99368</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>16.3037</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1355,6 +1655,11 @@
           <t>0.99373</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>16.2266</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1370,6 +1675,11 @@
           <t>0.99367</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>16.3184</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1385,6 +1695,11 @@
           <t>0.99369</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>16.2764</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1400,6 +1715,11 @@
           <t>0.99372</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>16.3340</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1415,6 +1735,11 @@
           <t>0.99375</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>16.2520</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1430,6 +1755,11 @@
           <t>0.99367</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>16.2656</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1445,6 +1775,11 @@
           <t>0.99367</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>16.2666</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1460,6 +1795,11 @@
           <t>0.99359</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>16.3027</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1475,6 +1815,11 @@
           <t>0.99365</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>16.2256</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1490,6 +1835,11 @@
           <t>0.99364</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>16.2305</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1505,6 +1855,11 @@
           <t>0.99371</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>16.2256</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1520,6 +1875,11 @@
           <t>0.99371</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>16.3105</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1535,6 +1895,11 @@
           <t>0.99367</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>16.2676</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1550,6 +1915,11 @@
           <t>0.99369</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>16.3242</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1565,6 +1935,11 @@
           <t>0.99374</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>16.3301</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1580,6 +1955,11 @@
           <t>0.99368</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>16.1953</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1595,6 +1975,11 @@
           <t>0.99368</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>16.2471</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1610,6 +1995,11 @@
           <t>0.99368</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>16.3350</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1625,6 +2015,11 @@
           <t>0.99367</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>16.4229</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1640,6 +2035,11 @@
           <t>0.99370</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>16.3525</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1655,6 +2055,11 @@
           <t>0.99370</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>16.3604</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1670,6 +2075,11 @@
           <t>0.99367</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>16.4297</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1685,6 +2095,11 @@
           <t>0.99374</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>16.3428</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1700,6 +2115,11 @@
           <t>0.99373</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>16.3691</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1715,6 +2135,11 @@
           <t>0.99369</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>16.3672</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1730,6 +2155,11 @@
           <t>0.99372</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>16.2793</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1745,6 +2175,11 @@
           <t>0.99374</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>16.2412</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1760,6 +2195,11 @@
           <t>0.99372</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>16.3252</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1775,6 +2215,11 @@
           <t>0.99377</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>16.2559</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1790,6 +2235,11 @@
           <t>0.99373</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>16.2939</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1805,6 +2255,11 @@
           <t>0.99371</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>16.2656</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1820,6 +2275,11 @@
           <t>0.99370</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>16.2246</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1835,6 +2295,11 @@
           <t>0.99370</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>16.2627</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1850,6 +2315,11 @@
           <t>0.99369</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>16.2666</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1865,6 +2335,11 @@
           <t>0.99380</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>16.2148</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1880,6 +2355,11 @@
           <t>0.99369</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>16.2314</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1893,6 +2373,11 @@
       <c r="C97" t="inlineStr">
         <is>
           <t>0.99371</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>16.2568</t>
         </is>
       </c>
     </row>
@@ -1907,7 +2392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1931,6 +2416,11 @@
           <t>SSIM</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size (KB)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1946,6 +2436,11 @@
           <t>0.96274</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.2148</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1961,6 +2456,11 @@
           <t>0.96272</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.3906</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1976,6 +2476,11 @@
           <t>0.96372</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.1777</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1991,6 +2496,11 @@
           <t>0.96603</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.1895</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2006,6 +2516,11 @@
           <t>0.96962</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.9570</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2021,6 +2536,11 @@
           <t>0.97020</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.8379</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2036,6 +2556,11 @@
           <t>0.97090</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.7754</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2051,6 +2576,11 @@
           <t>0.97052</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.7734</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2066,6 +2596,11 @@
           <t>0.97063</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.8457</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2081,6 +2616,11 @@
           <t>0.96996</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.8848</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2096,6 +2636,11 @@
           <t>0.96978</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.8965</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2111,6 +2656,11 @@
           <t>0.97074</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.9238</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2126,6 +2676,11 @@
           <t>0.96963</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.9180</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2141,6 +2696,11 @@
           <t>0.96978</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.9160</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2156,6 +2716,11 @@
           <t>0.96950</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.9648</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2171,6 +2736,11 @@
           <t>0.97019</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.8809</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2186,6 +2756,11 @@
           <t>0.97086</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.8691</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2201,6 +2776,11 @@
           <t>0.97059</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.9043</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2216,6 +2796,11 @@
           <t>0.97014</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.9199</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2231,6 +2816,11 @@
           <t>0.97054</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.9512</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2246,6 +2836,11 @@
           <t>0.97016</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.9609</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2261,6 +2856,11 @@
           <t>0.96999</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.9707</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2276,6 +2876,11 @@
           <t>0.96983</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.0020</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2291,6 +2896,11 @@
           <t>0.97030</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.0820</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2306,6 +2916,11 @@
           <t>0.96969</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.0898</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2321,6 +2936,11 @@
           <t>0.97023</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.0625</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2336,6 +2956,11 @@
           <t>0.97023</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.1914</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2351,6 +2976,11 @@
           <t>0.96908</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.2324</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2366,6 +2996,11 @@
           <t>0.96898</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.2520</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2381,6 +3016,11 @@
           <t>0.96884</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.2656</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2396,6 +3036,11 @@
           <t>0.96980</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.2148</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2411,6 +3056,11 @@
           <t>0.96967</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.2246</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2426,6 +3076,11 @@
           <t>0.96968</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.2305</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2441,6 +3096,11 @@
           <t>0.96939</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.2422</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2456,6 +3116,11 @@
           <t>0.96970</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.2500</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2471,6 +3136,11 @@
           <t>0.96867</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.2891</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2486,6 +3156,11 @@
           <t>0.96851</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.3086</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2501,6 +3176,11 @@
           <t>0.96865</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.3398</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2516,6 +3196,11 @@
           <t>0.96878</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.3281</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2531,6 +3216,11 @@
           <t>0.96872</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.3535</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2546,6 +3236,11 @@
           <t>0.96852</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.3945</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2561,6 +3256,11 @@
           <t>0.96879</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.3398</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2576,6 +3276,11 @@
           <t>0.96842</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.3770</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2591,6 +3296,11 @@
           <t>0.96848</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.3613</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2606,6 +3316,11 @@
           <t>0.96837</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.3906</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2621,6 +3336,11 @@
           <t>0.96722</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.4160</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2636,6 +3356,11 @@
           <t>0.96785</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.4043</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2651,6 +3376,11 @@
           <t>0.96768</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.3984</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2666,6 +3396,11 @@
           <t>0.96791</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.4141</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2681,6 +3416,11 @@
           <t>0.96816</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.3945</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2696,6 +3436,11 @@
           <t>0.96749</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.3633</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2711,6 +3456,11 @@
           <t>0.96766</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.4609</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2726,6 +3476,11 @@
           <t>0.96794</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.5117</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2741,6 +3496,11 @@
           <t>0.96832</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.4902</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2756,6 +3516,11 @@
           <t>0.96774</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.4883</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2771,6 +3536,11 @@
           <t>0.96815</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.4453</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2786,6 +3556,11 @@
           <t>0.96731</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.4316</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2801,6 +3576,11 @@
           <t>0.96705</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.3574</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2816,6 +3596,11 @@
           <t>0.96817</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.4238</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2831,6 +3616,11 @@
           <t>0.96770</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.4395</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2846,6 +3636,11 @@
           <t>0.96667</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.4824</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2861,6 +3656,11 @@
           <t>0.96702</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.4629</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2876,6 +3676,11 @@
           <t>0.96608</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.3086</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2891,6 +3696,11 @@
           <t>0.96697</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.4453</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2906,6 +3716,11 @@
           <t>0.96713</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.4199</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2921,6 +3736,11 @@
           <t>0.96678</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.4648</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2936,6 +3756,11 @@
           <t>0.96714</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.4297</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2951,6 +3776,11 @@
           <t>0.96708</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.4043</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2966,6 +3796,11 @@
           <t>0.96755</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.4434</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2981,6 +3816,11 @@
           <t>0.96717</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.3477</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2996,6 +3836,11 @@
           <t>0.96805</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.4062</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3011,6 +3856,11 @@
           <t>0.96723</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.4160</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3026,6 +3876,11 @@
           <t>0.96749</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.3945</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3041,6 +3896,11 @@
           <t>0.96656</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.3477</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3056,6 +3916,11 @@
           <t>0.96690</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.3828</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3071,6 +3936,11 @@
           <t>0.96800</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.4453</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3086,6 +3956,11 @@
           <t>0.96768</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.4590</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3101,6 +3976,11 @@
           <t>0.96716</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.4668</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3116,6 +3996,11 @@
           <t>0.96793</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.4531</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3131,6 +4016,11 @@
           <t>0.96763</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.4961</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3146,6 +4036,11 @@
           <t>0.96784</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.5098</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3161,6 +4056,11 @@
           <t>0.96722</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.4668</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3176,6 +4076,11 @@
           <t>0.96779</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.4414</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3191,6 +4096,11 @@
           <t>0.96765</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.4395</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3206,6 +4116,11 @@
           <t>0.96690</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.4316</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3221,6 +4136,11 @@
           <t>0.96783</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.4453</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3236,6 +4156,11 @@
           <t>0.96669</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.4258</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3251,6 +4176,11 @@
           <t>0.96705</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.4668</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3266,6 +4196,11 @@
           <t>0.96661</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.4062</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3281,6 +4216,11 @@
           <t>0.96618</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.3652</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3296,6 +4236,11 @@
           <t>0.96641</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.4512</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3311,6 +4256,11 @@
           <t>0.96756</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.4492</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3326,6 +4276,11 @@
           <t>0.96694</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.4316</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3341,6 +4296,11 @@
           <t>0.96799</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.4512</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3356,6 +4316,11 @@
           <t>0.96771</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.4629</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3369,6 +4334,11 @@
       <c r="C97" t="inlineStr">
         <is>
           <t>0.96708</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.4551</t>
         </is>
       </c>
     </row>
@@ -3383,7 +4353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3407,6 +4377,11 @@
           <t>SSIM</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size (KB)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3422,6 +4397,11 @@
           <t>0.96614</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.7402</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3437,6 +4417,11 @@
           <t>0.96608</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.8262</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3452,6 +4437,11 @@
           <t>0.96740</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.6562</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3467,6 +4457,11 @@
           <t>0.96995</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.5605</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3482,6 +4477,11 @@
           <t>0.97168</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.3105</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3497,6 +4497,11 @@
           <t>0.97338</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.2598</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3512,6 +4517,11 @@
           <t>0.97367</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.1426</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -3527,6 +4537,11 @@
           <t>0.97280</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.1543</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -3542,6 +4557,11 @@
           <t>0.97202</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.2109</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -3557,6 +4577,11 @@
           <t>0.97262</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.2793</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3572,6 +4597,11 @@
           <t>0.97202</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.3008</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3587,6 +4617,11 @@
           <t>0.97300</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.3184</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3602,6 +4637,11 @@
           <t>0.97221</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.2871</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3617,6 +4657,11 @@
           <t>0.97186</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.3164</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3632,6 +4677,11 @@
           <t>0.97183</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.3652</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3647,6 +4697,11 @@
           <t>0.97258</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.2871</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3662,6 +4717,11 @@
           <t>0.97339</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.2715</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3677,6 +4737,11 @@
           <t>0.97261</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.2988</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3692,6 +4757,11 @@
           <t>0.97243</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.3047</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3707,6 +4777,11 @@
           <t>0.97267</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.3379</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3722,6 +4797,11 @@
           <t>0.97233</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.3555</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3737,6 +4817,11 @@
           <t>0.97182</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.4062</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3752,6 +4837,11 @@
           <t>0.97207</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.3984</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3767,6 +4857,11 @@
           <t>0.97275</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.4258</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3782,6 +4877,11 @@
           <t>0.97240</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.4648</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3797,6 +4897,11 @@
           <t>0.97271</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.4648</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3812,6 +4917,11 @@
           <t>0.97182</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.5801</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3827,6 +4937,11 @@
           <t>0.97136</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.5977</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3842,6 +4957,11 @@
           <t>0.97162</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.6484</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3857,6 +4977,11 @@
           <t>0.97171</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.6738</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3872,6 +4997,11 @@
           <t>0.97184</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.5703</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3887,6 +5017,11 @@
           <t>0.97201</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.5898</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3902,6 +5037,11 @@
           <t>0.97184</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.5879</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3917,6 +5057,11 @@
           <t>0.97239</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.6660</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3932,6 +5077,11 @@
           <t>0.97185</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.7070</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3947,6 +5097,11 @@
           <t>0.97058</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.7031</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3962,6 +5117,11 @@
           <t>0.97179</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.6895</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3977,6 +5137,11 @@
           <t>0.97103</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.7266</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3992,6 +5157,11 @@
           <t>0.97051</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.7012</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4007,6 +5177,11 @@
           <t>0.97125</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.8086</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4022,6 +5197,11 @@
           <t>0.97109</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.7305</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4037,6 +5217,11 @@
           <t>0.97139</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.7832</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4052,6 +5237,11 @@
           <t>0.97040</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.7676</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4067,6 +5257,11 @@
           <t>0.97081</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.8066</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4082,6 +5277,11 @@
           <t>0.96957</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.7871</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4097,6 +5297,11 @@
           <t>0.96978</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.8066</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4112,6 +5317,11 @@
           <t>0.96942</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.8145</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4127,6 +5337,11 @@
           <t>0.96990</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.8105</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4142,6 +5357,11 @@
           <t>0.96991</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.8301</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4157,6 +5377,11 @@
           <t>0.96976</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.7598</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4172,6 +5397,11 @@
           <t>0.97060</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.8242</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4187,6 +5417,11 @@
           <t>0.96989</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.8359</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4202,6 +5437,11 @@
           <t>0.96953</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.8809</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4217,6 +5457,11 @@
           <t>0.96977</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.8945</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4232,6 +5477,11 @@
           <t>0.97045</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.8984</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4247,6 +5497,11 @@
           <t>0.96933</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.8555</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4262,6 +5517,11 @@
           <t>0.97018</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.8301</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4277,6 +5537,11 @@
           <t>0.97049</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.8672</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4292,6 +5557,11 @@
           <t>0.97017</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.8516</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4307,6 +5577,11 @@
           <t>0.97060</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.8691</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4322,6 +5597,11 @@
           <t>0.96992</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.8555</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4337,6 +5617,11 @@
           <t>0.96983</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.8770</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4352,6 +5637,11 @@
           <t>0.96917</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.8242</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4367,6 +5657,11 @@
           <t>0.96915</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.8145</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4382,6 +5677,11 @@
           <t>0.96947</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.7910</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4397,6 +5697,11 @@
           <t>0.96965</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.8457</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4412,6 +5717,11 @@
           <t>0.96895</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.8145</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4427,6 +5737,11 @@
           <t>0.97011</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.8457</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4442,6 +5757,11 @@
           <t>0.96955</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.8594</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4457,6 +5777,11 @@
           <t>0.97038</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.7812</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4472,6 +5797,11 @@
           <t>0.96989</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.7754</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4487,6 +5817,11 @@
           <t>0.96980</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.8496</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4502,6 +5837,11 @@
           <t>0.97001</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.7988</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4517,6 +5857,11 @@
           <t>0.96980</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.8438</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4532,6 +5877,11 @@
           <t>0.97092</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.7949</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4547,6 +5897,11 @@
           <t>0.97054</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.8496</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4562,6 +5917,11 @@
           <t>0.97033</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.8691</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4577,6 +5937,11 @@
           <t>0.96923</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.8926</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4592,6 +5957,11 @@
           <t>0.97018</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.8516</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4607,6 +5977,11 @@
           <t>0.96999</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.9121</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4622,6 +5997,11 @@
           <t>0.97071</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.9141</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4637,6 +6017,11 @@
           <t>0.97010</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.9062</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4652,6 +6037,11 @@
           <t>0.97016</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.8262</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4667,6 +6057,11 @@
           <t>0.96929</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.8613</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4682,6 +6077,11 @@
           <t>0.97010</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.8867</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4697,6 +6097,11 @@
           <t>0.96990</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.8594</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4712,6 +6117,11 @@
           <t>0.96960</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.8867</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4727,6 +6137,11 @@
           <t>0.96997</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.8242</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4742,6 +6157,11 @@
           <t>0.96918</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.8223</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4757,6 +6177,11 @@
           <t>0.96923</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.8730</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4772,6 +6197,11 @@
           <t>0.96935</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.8418</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4787,6 +6217,11 @@
           <t>0.96937</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.8262</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4802,6 +6237,11 @@
           <t>0.96950</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.8379</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4817,6 +6257,11 @@
           <t>0.96964</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.8359</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4832,6 +6277,11 @@
           <t>0.96992</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.8008</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4845,6 +6295,11 @@
       <c r="C97" t="inlineStr">
         <is>
           <t>0.97043</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.8438</t>
         </is>
       </c>
     </row>
@@ -4859,7 +6314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4883,6 +6338,11 @@
           <t>SSIM</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size (KB)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -4898,6 +6358,11 @@
           <t>0.96989</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.3828</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -4913,6 +6378,11 @@
           <t>0.96897</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.4336</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -4928,6 +6398,11 @@
           <t>0.96950</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.1895</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -4943,6 +6418,11 @@
           <t>0.97170</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.0469</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -4958,6 +6438,11 @@
           <t>0.97384</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.7754</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -4973,6 +6458,11 @@
           <t>0.97430</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.6309</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -4988,6 +6478,11 @@
           <t>0.97548</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.5508</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -5003,6 +6498,11 @@
           <t>0.97496</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.5391</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -5018,6 +6518,11 @@
           <t>0.97507</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.6211</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -5033,6 +6538,11 @@
           <t>0.97453</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.7051</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -5048,6 +6558,11 @@
           <t>0.97418</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.7051</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -5063,6 +6578,11 @@
           <t>0.97424</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.7109</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -5078,6 +6598,11 @@
           <t>0.97441</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.7305</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -5093,6 +6618,11 @@
           <t>0.97392</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.7227</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -5108,6 +6638,11 @@
           <t>0.97378</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.7266</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -5123,6 +6658,11 @@
           <t>0.97454</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.7520</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -5138,6 +6678,11 @@
           <t>0.97471</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.6309</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -5153,6 +6698,11 @@
           <t>0.97451</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.6094</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -5168,6 +6718,11 @@
           <t>0.97405</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.7383</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -5183,6 +6738,11 @@
           <t>0.97444</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.7383</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -5198,6 +6758,11 @@
           <t>0.97454</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.7520</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -5213,6 +6778,11 @@
           <t>0.97390</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.8125</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -5228,6 +6798,11 @@
           <t>0.97388</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.8711</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -5243,6 +6818,11 @@
           <t>0.97431</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.7891</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -5258,6 +6838,11 @@
           <t>0.97458</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.8887</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -5273,6 +6858,11 @@
           <t>0.97430</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.8516</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -5288,6 +6878,11 @@
           <t>0.97460</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.9531</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -5303,6 +6898,11 @@
           <t>0.97383</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.0332</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5318,6 +6918,11 @@
           <t>0.97392</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.0938</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -5333,6 +6938,11 @@
           <t>0.97407</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.1680</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5348,6 +6958,11 @@
           <t>0.97451</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.0234</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5363,6 +6978,11 @@
           <t>0.97401</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.9844</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5378,6 +6998,11 @@
           <t>0.97426</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.0742</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5393,6 +7018,11 @@
           <t>0.97452</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.1895</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5408,6 +7038,11 @@
           <t>0.97376</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.1270</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5423,6 +7058,11 @@
           <t>0.97320</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.1230</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5438,6 +7078,11 @@
           <t>0.97414</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.1543</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5453,6 +7098,11 @@
           <t>0.97377</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.1875</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5468,6 +7118,11 @@
           <t>0.97387</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.1426</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5483,6 +7138,11 @@
           <t>0.97387</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.1855</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5498,6 +7158,11 @@
           <t>0.97326</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.2148</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5513,6 +7178,11 @@
           <t>0.97371</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.2324</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5528,6 +7198,11 @@
           <t>0.97301</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.2891</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5543,6 +7218,11 @@
           <t>0.97334</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.2812</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5558,6 +7238,11 @@
           <t>0.97237</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.2148</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5573,6 +7258,11 @@
           <t>0.97286</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.3594</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5588,6 +7278,11 @@
           <t>0.97335</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.3086</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5603,6 +7298,11 @@
           <t>0.97310</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.2910</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5618,6 +7318,11 @@
           <t>0.97359</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.3223</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5633,6 +7338,11 @@
           <t>0.97331</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.2051</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5648,6 +7358,11 @@
           <t>0.97307</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.2715</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5663,6 +7378,11 @@
           <t>0.97348</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.3809</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5678,6 +7398,11 @@
           <t>0.97251</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.3438</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5693,6 +7418,11 @@
           <t>0.97272</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.3535</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5708,6 +7438,11 @@
           <t>0.97360</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.3770</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5723,6 +7458,11 @@
           <t>0.97270</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.3672</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5738,6 +7478,11 @@
           <t>0.97286</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.3184</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5753,6 +7498,11 @@
           <t>0.97249</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.3379</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5768,6 +7518,11 @@
           <t>0.97339</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.3203</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5783,6 +7538,11 @@
           <t>0.97334</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.2871</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5798,6 +7558,11 @@
           <t>0.97251</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.3711</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5813,6 +7578,11 @@
           <t>0.97249</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.3125</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5828,6 +7598,11 @@
           <t>0.97250</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.2930</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5843,6 +7618,11 @@
           <t>0.97282</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.3301</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5858,6 +7638,11 @@
           <t>0.97266</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.3379</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5873,6 +7658,11 @@
           <t>0.97196</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.2871</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5888,6 +7678,11 @@
           <t>0.97275</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.3086</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5903,6 +7698,11 @@
           <t>0.97314</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.3008</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5918,6 +7718,11 @@
           <t>0.97291</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.3633</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5933,6 +7738,11 @@
           <t>0.97184</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.2949</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5948,6 +7758,11 @@
           <t>0.97245</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.3105</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5963,6 +7778,11 @@
           <t>0.97218</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.2500</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5978,6 +7798,11 @@
           <t>0.97287</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.3184</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5993,6 +7818,11 @@
           <t>0.97295</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.3184</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -6008,6 +7838,11 @@
           <t>0.97223</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.2500</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -6023,6 +7858,11 @@
           <t>0.97270</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.2500</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -6038,6 +7878,11 @@
           <t>0.97283</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.3535</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -6053,6 +7898,11 @@
           <t>0.97248</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.3340</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -6068,6 +7918,11 @@
           <t>0.97276</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.3613</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -6083,6 +7938,11 @@
           <t>0.97331</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.3926</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -6098,6 +7958,11 @@
           <t>0.97288</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.3555</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6113,6 +7978,11 @@
           <t>0.97344</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.3887</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6128,6 +7998,11 @@
           <t>0.97255</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.3516</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -6143,6 +8018,11 @@
           <t>0.97297</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.4141</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -6158,6 +8038,11 @@
           <t>0.97278</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.3516</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6173,6 +8058,11 @@
           <t>0.97290</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.3652</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6188,6 +8078,11 @@
           <t>0.97272</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.3672</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6203,6 +8098,11 @@
           <t>0.97306</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.3828</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -6218,6 +8118,11 @@
           <t>0.97265</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.3164</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6233,6 +8138,11 @@
           <t>0.97176</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.2969</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -6248,6 +8158,11 @@
           <t>0.97173</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.2676</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6263,6 +8178,11 @@
           <t>0.97234</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.2988</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6278,6 +8198,11 @@
           <t>0.97277</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.3125</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6293,6 +8218,11 @@
           <t>0.97229</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.3652</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6308,6 +8238,11 @@
           <t>0.97265</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.3203</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6321,6 +8256,11 @@
       <c r="C97" t="inlineStr">
         <is>
           <t>0.97226</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.2773</t>
         </is>
       </c>
     </row>
@@ -6335,7 +8275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6359,6 +8299,11 @@
           <t>SSIM</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size (KB)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -6374,6 +8319,11 @@
           <t>0.97190</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.9590</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -6389,6 +8339,11 @@
           <t>0.97128</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.1328</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -6404,6 +8359,11 @@
           <t>0.97195</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.8047</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -6419,6 +8379,11 @@
           <t>0.97382</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.5605</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -6434,6 +8399,11 @@
           <t>0.97664</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.3262</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -6449,6 +8419,11 @@
           <t>0.97645</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.1895</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -6464,6 +8439,11 @@
           <t>0.97706</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.0762</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -6479,6 +8459,11 @@
           <t>0.97614</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.0293</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -6494,6 +8479,11 @@
           <t>0.97651</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.1074</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -6509,6 +8499,11 @@
           <t>0.97636</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.2480</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -6524,6 +8519,11 @@
           <t>0.97658</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.2188</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -6539,6 +8539,11 @@
           <t>0.97648</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.1699</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -6554,6 +8559,11 @@
           <t>0.97599</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.2773</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -6569,6 +8579,11 @@
           <t>0.97589</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.2031</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -6584,6 +8599,11 @@
           <t>0.97631</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.2500</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -6599,6 +8619,11 @@
           <t>0.97646</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.2402</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -6614,6 +8639,11 @@
           <t>0.97685</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.1641</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -6629,6 +8659,11 @@
           <t>0.97707</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.1855</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -6644,6 +8679,11 @@
           <t>0.97624</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.2637</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -6659,6 +8699,11 @@
           <t>0.97631</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.2832</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -6674,6 +8719,11 @@
           <t>0.97656</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.3262</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -6689,6 +8739,11 @@
           <t>0.97686</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.3535</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -6704,6 +8759,11 @@
           <t>0.97657</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.3457</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -6719,6 +8779,11 @@
           <t>0.97668</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.3633</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -6734,6 +8799,11 @@
           <t>0.97615</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.4004</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -6749,6 +8819,11 @@
           <t>0.97693</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.4531</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -6764,6 +8839,11 @@
           <t>0.97600</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.5156</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -6779,6 +8859,11 @@
           <t>0.97597</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.6230</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -6794,6 +8879,11 @@
           <t>0.97540</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.7441</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -6809,6 +8899,11 @@
           <t>0.97581</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.6484</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -6824,6 +8919,11 @@
           <t>0.97636</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.5801</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -6839,6 +8939,11 @@
           <t>0.97543</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.5488</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -6854,6 +8959,11 @@
           <t>0.97636</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.6465</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -6869,6 +8979,11 @@
           <t>0.97570</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.6426</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -6884,6 +8999,11 @@
           <t>0.97578</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.6855</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -6899,6 +9019,11 @@
           <t>0.97599</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.7754</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -6914,6 +9039,11 @@
           <t>0.97579</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.7715</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6929,6 +9059,11 @@
           <t>0.97658</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.8496</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6944,6 +9079,11 @@
           <t>0.97634</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.8301</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6959,6 +9099,11 @@
           <t>0.97562</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.7383</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6974,6 +9119,11 @@
           <t>0.97616</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.8398</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6989,6 +9139,11 @@
           <t>0.97541</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.8086</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -7004,6 +9159,11 @@
           <t>0.97492</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.8730</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -7019,6 +9179,11 @@
           <t>0.97507</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.7949</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7034,6 +9199,11 @@
           <t>0.97507</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.8594</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7049,6 +9219,11 @@
           <t>0.97555</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.0059</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7064,6 +9239,11 @@
           <t>0.97507</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.8652</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7079,6 +9259,11 @@
           <t>0.97495</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.8828</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7094,6 +9279,11 @@
           <t>0.97593</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.8984</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7109,6 +9299,11 @@
           <t>0.97487</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.8418</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7124,6 +9319,11 @@
           <t>0.97517</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.8301</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7139,6 +9339,11 @@
           <t>0.97429</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.8926</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7154,6 +9359,11 @@
           <t>0.97523</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.0859</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7169,6 +9379,11 @@
           <t>0.97516</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.8789</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7184,6 +9399,11 @@
           <t>0.97548</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.0000</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7199,6 +9419,11 @@
           <t>0.97517</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.9199</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7214,6 +9439,11 @@
           <t>0.97545</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.0059</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7229,6 +9459,11 @@
           <t>0.97482</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.8887</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7244,6 +9479,11 @@
           <t>0.97571</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.0312</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7259,6 +9499,11 @@
           <t>0.97481</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.9512</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7274,6 +9519,11 @@
           <t>0.97532</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.9902</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7289,6 +9539,11 @@
           <t>0.97487</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.0117</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7304,6 +9559,11 @@
           <t>0.97469</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.8672</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7319,6 +9579,11 @@
           <t>0.97470</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.0137</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7334,6 +9599,11 @@
           <t>0.97525</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.9453</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7349,6 +9619,11 @@
           <t>0.97550</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.9746</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -7364,6 +9639,11 @@
           <t>0.97534</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.8906</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -7379,6 +9659,11 @@
           <t>0.97548</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.9688</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -7394,6 +9679,11 @@
           <t>0.97522</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.9160</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -7409,6 +9699,11 @@
           <t>0.97475</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.8828</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -7424,6 +9719,11 @@
           <t>0.97657</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.0117</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -7439,6 +9739,11 @@
           <t>0.97556</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.9121</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -7454,6 +9759,11 @@
           <t>0.97505</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.9219</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -7469,6 +9779,11 @@
           <t>0.97466</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.9219</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -7484,6 +9799,11 @@
           <t>0.97619</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.8926</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -7499,6 +9819,11 @@
           <t>0.97523</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.8906</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -7514,6 +9839,11 @@
           <t>0.97524</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.9434</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -7529,6 +9859,11 @@
           <t>0.97523</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.0508</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -7544,6 +9879,11 @@
           <t>0.97500</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.9609</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -7559,6 +9899,11 @@
           <t>0.97564</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.0312</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -7574,6 +9919,11 @@
           <t>0.97470</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.9512</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -7589,6 +9939,11 @@
           <t>0.97618</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.0508</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -7604,6 +9959,11 @@
           <t>0.97505</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.0156</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -7619,6 +9979,11 @@
           <t>0.97551</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.9980</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -7634,6 +9999,11 @@
           <t>0.97554</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.9570</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -7649,6 +10019,11 @@
           <t>0.97497</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.9824</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -7664,6 +10039,11 @@
           <t>0.97476</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.0215</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -7679,6 +10059,11 @@
           <t>0.97545</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.0215</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -7694,6 +10079,11 @@
           <t>0.97459</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.9375</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -7709,6 +10099,11 @@
           <t>0.97478</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.8809</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -7724,6 +10119,11 @@
           <t>0.97504</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.9727</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -7739,6 +10139,11 @@
           <t>0.97527</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.9902</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -7754,6 +10159,11 @@
           <t>0.97504</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.0215</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -7769,6 +10179,11 @@
           <t>0.97511</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.9258</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7784,6 +10199,11 @@
           <t>0.97594</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.9629</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7797,6 +10217,11 @@
       <c r="C97" t="inlineStr">
         <is>
           <t>0.97561</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.9512</t>
         </is>
       </c>
     </row>
@@ -7811,7 +10236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7835,6 +10260,11 @@
           <t>SSIM</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size (KB)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -7850,6 +10280,11 @@
           <t>0.97873</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.6699</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -7865,6 +10300,11 @@
           <t>0.97889</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.7793</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -7880,6 +10320,11 @@
           <t>0.97845</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.3867</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -7895,6 +10340,11 @@
           <t>0.97999</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.1641</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -7910,6 +10360,11 @@
           <t>0.98145</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.7578</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -7925,6 +10380,11 @@
           <t>0.98193</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.5762</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -7940,6 +10400,11 @@
           <t>0.98086</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.3652</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -7955,6 +10420,11 @@
           <t>0.98159</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.4316</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -7970,6 +10440,11 @@
           <t>0.98216</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.5508</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -7985,6 +10460,11 @@
           <t>0.98121</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.6543</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -8000,6 +10480,11 @@
           <t>0.98115</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.6914</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -8015,6 +10500,11 @@
           <t>0.98130</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.6836</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -8030,6 +10520,11 @@
           <t>0.98153</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.6719</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -8045,6 +10540,11 @@
           <t>0.98196</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.7500</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -8060,6 +10560,11 @@
           <t>0.98152</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.7168</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -8075,6 +10580,11 @@
           <t>0.98109</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.5879</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -8090,6 +10600,11 @@
           <t>0.98210</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.5527</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -8105,6 +10620,11 @@
           <t>0.98162</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.6211</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -8120,6 +10640,11 @@
           <t>0.98194</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.7051</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -8135,6 +10660,11 @@
           <t>0.98106</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.7637</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -8150,6 +10680,11 @@
           <t>0.98102</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.7910</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -8165,6 +10700,11 @@
           <t>0.98088</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.7500</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -8180,6 +10720,11 @@
           <t>0.98213</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.8281</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -8195,6 +10740,11 @@
           <t>0.98178</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.7773</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -8210,6 +10760,11 @@
           <t>0.98196</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.8359</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -8225,6 +10780,11 @@
           <t>0.98171</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.8613</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -8240,6 +10800,11 @@
           <t>0.98087</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.9609</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -8255,6 +10820,11 @@
           <t>0.98161</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.1738</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -8270,6 +10840,11 @@
           <t>0.98150</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.1562</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -8285,6 +10860,11 @@
           <t>0.98165</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.1426</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -8300,6 +10880,11 @@
           <t>0.98178</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.0645</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -8315,6 +10900,11 @@
           <t>0.98190</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.0508</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -8330,6 +10920,11 @@
           <t>0.98198</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.1250</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -8345,6 +10940,11 @@
           <t>0.98198</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.1680</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -8360,6 +10960,11 @@
           <t>0.98150</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.1680</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -8375,6 +10980,11 @@
           <t>0.98157</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.2422</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -8390,6 +11000,11 @@
           <t>0.98072</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.1895</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -8405,6 +11020,11 @@
           <t>0.98173</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.3926</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -8420,6 +11040,11 @@
           <t>0.98157</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.1895</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -8435,6 +11060,11 @@
           <t>0.98104</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.2715</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -8450,6 +11080,11 @@
           <t>0.98142</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.4434</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -8465,6 +11100,11 @@
           <t>0.98167</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.4395</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -8480,6 +11120,11 @@
           <t>0.98156</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.5137</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -8495,6 +11140,11 @@
           <t>0.98122</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.4531</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -8510,6 +11160,11 @@
           <t>0.98053</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.5625</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -8525,6 +11180,11 @@
           <t>0.98094</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.6113</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -8540,6 +11200,11 @@
           <t>0.98076</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.5801</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -8555,6 +11220,11 @@
           <t>0.98103</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.5547</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -8570,6 +11240,11 @@
           <t>0.98174</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.6660</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -8585,6 +11260,11 @@
           <t>0.98135</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.4531</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -8600,6 +11280,11 @@
           <t>0.98074</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.4062</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8615,6 +11300,11 @@
           <t>0.98122</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.5723</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8630,6 +11320,11 @@
           <t>0.98022</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.6914</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8645,6 +11340,11 @@
           <t>0.98122</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.5645</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8660,6 +11360,11 @@
           <t>0.98044</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.6797</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8675,6 +11380,11 @@
           <t>0.98140</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.5742</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8690,6 +11400,11 @@
           <t>0.98169</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.6133</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8705,6 +11420,11 @@
           <t>0.98132</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.3965</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8720,6 +11440,11 @@
           <t>0.98173</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.6914</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8735,6 +11460,11 @@
           <t>0.98156</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.5254</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8750,6 +11480,11 @@
           <t>0.98099</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.5996</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8765,6 +11500,11 @@
           <t>0.98114</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.6113</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8780,6 +11520,11 @@
           <t>0.97986</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.3926</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8795,6 +11540,11 @@
           <t>0.98133</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.6465</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8810,6 +11560,11 @@
           <t>0.98152</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.6289</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8825,6 +11580,11 @@
           <t>0.98045</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.5996</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -8840,6 +11600,11 @@
           <t>0.98100</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.5586</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -8855,6 +11620,11 @@
           <t>0.98091</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.5684</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -8870,6 +11640,11 @@
           <t>0.98162</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.5859</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -8885,6 +11660,11 @@
           <t>0.98059</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.3320</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -8900,6 +11680,11 @@
           <t>0.98136</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.6035</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -8915,6 +11700,11 @@
           <t>0.98160</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.5586</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -8930,6 +11720,11 @@
           <t>0.98069</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.3184</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -8945,6 +11740,11 @@
           <t>0.98107</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.4648</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -8960,6 +11760,11 @@
           <t>0.98135</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.5254</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -8975,6 +11780,11 @@
           <t>0.98040</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.5352</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -8990,6 +11800,11 @@
           <t>0.98076</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.5586</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -9005,6 +11820,11 @@
           <t>0.98114</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.5918</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -9020,6 +11840,11 @@
           <t>0.98129</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.5078</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -9035,6 +11860,11 @@
           <t>0.98182</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.7070</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -9050,6 +11880,11 @@
           <t>0.98055</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.7051</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -9065,6 +11900,11 @@
           <t>0.98113</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.6270</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -9080,6 +11920,11 @@
           <t>0.98072</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.6836</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -9095,6 +11940,11 @@
           <t>0.98102</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.6953</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -9110,6 +11960,11 @@
           <t>0.98159</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6.6250</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -9125,6 +11980,11 @@
           <t>0.98063</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6.6133</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -9140,6 +12000,11 @@
           <t>0.98143</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>6.6836</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -9155,6 +12020,11 @@
           <t>0.98155</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.6270</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -9170,6 +12040,11 @@
           <t>0.97999</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>6.5156</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -9185,6 +12060,11 @@
           <t>0.98064</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>6.3379</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -9200,6 +12080,11 @@
           <t>0.98130</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>6.5957</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -9215,6 +12100,11 @@
           <t>0.98128</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>6.5977</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -9230,6 +12120,11 @@
           <t>0.98142</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6.6484</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -9245,6 +12140,11 @@
           <t>0.98142</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>6.5879</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -9260,6 +12160,11 @@
           <t>0.98113</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>6.6387</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -9273,6 +12178,11 @@
       <c r="C97" t="inlineStr">
         <is>
           <t>0.98157</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>6.6387</t>
         </is>
       </c>
     </row>
@@ -9287,7 +12197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9311,6 +12221,11 @@
           <t>SSIM</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Size (KB)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -9326,6 +12241,11 @@
           <t>0.98711</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.8047</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -9341,6 +12261,11 @@
           <t>0.98734</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.2070</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -9356,6 +12281,11 @@
           <t>0.98700</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.6621</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -9371,6 +12301,11 @@
           <t>0.98787</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.2812</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -9386,6 +12321,11 @@
           <t>0.98844</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.5703</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -9401,6 +12341,11 @@
           <t>0.98903</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.2637</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -9416,6 +12361,11 @@
           <t>0.98892</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.8535</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -9431,6 +12381,11 @@
           <t>0.98879</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.6992</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -9446,6 +12401,11 @@
           <t>0.98888</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.0488</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -9461,6 +12421,11 @@
           <t>0.98890</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.2207</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -9476,6 +12441,11 @@
           <t>0.98852</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.3926</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -9491,6 +12461,11 @@
           <t>0.98858</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.2930</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -9506,6 +12481,11 @@
           <t>0.98847</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.2637</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -9521,6 +12501,11 @@
           <t>0.98860</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.4355</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -9536,6 +12521,11 @@
           <t>0.98847</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.5293</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -9551,6 +12541,11 @@
           <t>0.98862</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.2754</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -9566,6 +12561,11 @@
           <t>0.98868</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.1758</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -9581,6 +12581,11 @@
           <t>0.98859</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.2461</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -9596,6 +12601,11 @@
           <t>0.98880</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.3184</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -9611,6 +12621,11 @@
           <t>0.98859</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.3008</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -9626,6 +12641,11 @@
           <t>0.98855</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.4609</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -9641,6 +12661,11 @@
           <t>0.98873</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.3613</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -9656,6 +12681,11 @@
           <t>0.98874</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.4453</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -9671,6 +12701,11 @@
           <t>0.98852</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.4629</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -9686,6 +12721,11 @@
           <t>0.98858</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.5469</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -9701,6 +12741,11 @@
           <t>0.98865</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.5957</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -9716,6 +12761,11 @@
           <t>0.98824</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.8047</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -9731,6 +12781,11 @@
           <t>0.98845</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.0137</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -9746,6 +12801,11 @@
           <t>0.98842</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.9492</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -9761,6 +12821,11 @@
           <t>0.98856</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.8926</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -9776,6 +12841,11 @@
           <t>0.98868</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.8145</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -9791,6 +12861,11 @@
           <t>0.98875</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.6738</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -9806,6 +12881,11 @@
           <t>0.98876</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.8789</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -9821,6 +12901,11 @@
           <t>0.98869</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.0430</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -9836,6 +12921,11 @@
           <t>0.98857</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.0918</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -9851,6 +12941,11 @@
           <t>0.98835</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.9902</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -9866,6 +12961,11 @@
           <t>0.98872</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.1660</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -9881,6 +12981,11 @@
           <t>0.98856</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.0371</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -9896,6 +13001,11 @@
           <t>0.98855</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.1191</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -9911,6 +13021,11 @@
           <t>0.98851</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.2168</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -9926,6 +13041,11 @@
           <t>0.98862</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.2070</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -9941,6 +13061,11 @@
           <t>0.98843</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.2363</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -9956,6 +13081,11 @@
           <t>0.98821</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.3027</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -9971,6 +13101,11 @@
           <t>0.98825</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.1934</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -9986,6 +13121,11 @@
           <t>0.98846</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.3359</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -10001,6 +13141,11 @@
           <t>0.98825</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11.4180</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -10016,6 +13161,11 @@
           <t>0.98816</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.4824</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -10031,6 +13181,11 @@
           <t>0.98831</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.3965</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -10046,6 +13201,11 @@
           <t>0.98816</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.3574</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -10061,6 +13221,11 @@
           <t>0.98816</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>11.3145</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -10076,6 +13241,11 @@
           <t>0.98884</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.6035</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -10091,6 +13261,11 @@
           <t>0.98835</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>11.5625</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -10106,6 +13281,11 @@
           <t>0.98816</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11.6172</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -10121,6 +13301,11 @@
           <t>0.98896</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11.7461</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -10136,6 +13321,11 @@
           <t>0.98870</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11.7969</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -10151,6 +13341,11 @@
           <t>0.98895</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.6816</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -10166,6 +13361,11 @@
           <t>0.98834</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11.4336</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -10181,6 +13381,11 @@
           <t>0.98840</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>11.1895</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -10196,6 +13401,11 @@
           <t>0.98827</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11.4336</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -10211,6 +13421,11 @@
           <t>0.98838</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.3418</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -10226,6 +13441,11 @@
           <t>0.98814</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>11.4414</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -10241,6 +13461,11 @@
           <t>0.98824</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11.4902</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -10256,6 +13481,11 @@
           <t>0.98833</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>11.3262</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -10271,6 +13501,11 @@
           <t>0.98831</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>11.3770</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -10286,6 +13521,11 @@
           <t>0.98845</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>11.3672</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -10301,6 +13541,11 @@
           <t>0.98834</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>11.3320</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -10316,6 +13561,11 @@
           <t>0.98826</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>11.4082</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -10331,6 +13581,11 @@
           <t>0.98812</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>11.2852</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -10346,6 +13601,11 @@
           <t>0.98839</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>11.4707</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -10361,6 +13621,11 @@
           <t>0.98837</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>11.0723</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -10376,6 +13641,11 @@
           <t>0.98824</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>11.3008</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -10391,6 +13661,11 @@
           <t>0.98851</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>11.3828</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -10406,6 +13681,11 @@
           <t>0.98821</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>11.1582</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -10421,6 +13701,11 @@
           <t>0.98864</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>11.6055</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -10436,6 +13721,11 @@
           <t>0.98826</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>11.3320</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -10451,6 +13741,11 @@
           <t>0.98827</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>11.3828</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -10466,6 +13761,11 @@
           <t>0.98909</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>11.7480</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -10481,6 +13781,11 @@
           <t>0.98861</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>11.7793</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -10496,6 +13801,11 @@
           <t>0.98859</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>11.6895</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -10511,6 +13821,11 @@
           <t>0.98871</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>11.4785</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -10526,6 +13841,11 @@
           <t>0.98836</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>11.5859</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -10541,6 +13861,11 @@
           <t>0.98829</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>11.4609</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -10556,6 +13881,11 @@
           <t>0.98836</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>11.4629</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -10571,6 +13901,11 @@
           <t>0.98828</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>11.4414</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -10586,6 +13921,11 @@
           <t>0.98840</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>11.4160</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -10601,6 +13941,11 @@
           <t>0.98863</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>11.5273</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -10616,6 +13961,11 @@
           <t>0.98831</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>11.4297</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -10631,6 +13981,11 @@
           <t>0.98842</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>11.3496</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -10646,6 +14001,11 @@
           <t>0.98877</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>11.5449</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -10661,6 +14021,11 @@
           <t>0.98834</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>11.2070</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -10676,6 +14041,11 @@
           <t>0.98823</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>11.3906</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -10691,6 +14061,11 @@
           <t>0.98858</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>11.3398</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -10706,6 +14081,11 @@
           <t>0.98847</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>11.3730</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -10721,6 +14101,11 @@
           <t>0.98831</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>11.4453</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -10736,6 +14121,11 @@
           <t>0.98844</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>11.4492</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -10749,6 +14139,11 @@
       <c r="C97" t="inlineStr">
         <is>
           <t>0.98862</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>11.3965</t>
         </is>
       </c>
     </row>
